--- a/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,27 +476,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -512,22 +513,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -571,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,17 +582,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -608,22 +609,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ASD352 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -635,27 +636,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS262</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HS261</t>
         </is>
       </c>
     </row>
@@ -672,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -750,27 +751,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -782,27 +783,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -846,27 +847,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -883,22 +884,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -910,27 +911,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -942,17 +943,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ASD352 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -977,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,1160 +989,865 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Schedule Type</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Lect/Tuts/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Credits</t>
+          <t>Labs/Week</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>LTPSC</t>
+          <t>Combined Class</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lectures/Week</t>
+          <t>Allocation</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tutorials/Week</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Practicals/Week</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Department</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Post mid-sem</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Half Semester</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Inclusion Reasoning</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
+          <t>**CS262**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Anand Barangi</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
+          <t>**CS263**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Operating systems</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
+          <t>**ELECTIVE_B3**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Sunil P V, Vivekraj</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3.0-credit course with Post mid-sem = 'No'</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
+          <t>**CS264**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Prabhu Prasad B M</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Malay, Pramod Y</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>4.0-credit course with Post mid-sem = 'No'</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
+          <t>**CS261**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Prabhu Prasad B M</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>4.0-credit course with Post mid-sem = 'No'</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
+          <t>**MA261**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Aswath Babu H</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>nan-credit course with Post mid-sem = 'No'</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Pankaj</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total Courses: 7</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>Complete: 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>Rate: 14.3%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Introduction of RFIC design</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>Lectures: 14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**MA261**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Electronic Systems engineering</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**CS264**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Prabhu Prasad B M</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Data Science with Python</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B3**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>–</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>User Interaction and expirence design</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**CS262**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>4.0-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2D Computer Graphics</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Vivekraj V K</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**CS261**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-0-0-4-2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Anand Barangi</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**CS263**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Somen B</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>2-credit course with Post mid-sem = 'No'</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HSS/IE</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>3.0-credit course with Post mid-sem = 'No'</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total Courses: 7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rate: 14.3%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lectures: 14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,27 +479,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -508,27 +511,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -577,7 +580,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,12 +590,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -604,27 +607,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -636,27 +639,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS262 (Lab)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -678,17 +681,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CS262 (Lab)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -751,27 +754,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CS262</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>CS262</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -783,27 +786,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS264</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>CS261</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>MA261</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -862,12 +865,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -889,17 +892,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -911,27 +914,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS262 (Lab)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -948,22 +951,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>CS262 (Lab)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -978,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,22 +1039,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS262**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1061,7 +1064,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1071,7 +1074,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1083,32 +1086,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**HSS_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1140,7 +1143,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1224,27 +1227,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS261**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1318,22 +1321,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS262**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Software design tool and tecnique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1343,7 +1346,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1353,7 +1356,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1365,45 +1368,139 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>**CS261**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-0-0-4-2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**CS263**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total Courses: 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total Courses: 9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Complete: 1</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rate: 14.3%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rate: 11.1%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lectures: 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Labs: 4</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[WARN] 6 issues</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[WARN] 8 issues</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -1420,7 +1517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1478,27 +1575,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS264**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Prabhu Prasad B M</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1525,27 +1622,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS264**</t>
+          <t>**HSS_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1582,7 +1679,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1619,27 +1716,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1666,22 +1763,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS262**</t>
+          <t>**CS261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1691,7 +1788,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1701,7 +1798,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1713,22 +1810,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS261**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1807,47 +1904,2058 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>**CS262**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**MA261**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total Courses: 9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rate: 11.1%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lectures: 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[WARN] 8 issues</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-0-0-4-2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[OK] FULLY COMPLIANT</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Meets requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Total Courses: 7</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 1</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 14.3%</t>
+          <t>3/1/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 14</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 6 issues</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 6, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11.1%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1/9 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>74.3%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 74.3%, B: 74.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 50.7/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Prabhu Prasad B M</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-0-0-4-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC design</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L402]</t>
+          <t>CS262 (Lab) [L403]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L403]</t>
+          <t>CS263 (Lab) [C102]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L402]</t>
+          <t>CS262 (Lab) [L403]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1739,16 +1739,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="E5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>57.49999999999999</v>
+        <v>61.25000000000001</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1875,16 +1875,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2045,16 +2045,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2079,16 +2079,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2283,16 +2283,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2603,16 +2603,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2637,16 +2637,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>8.75</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C102, C303, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C104, C202, C203, C305, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C101, C102, C104, C203, C204, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C004, C101, C205, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C002, C004, C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C003, C304, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C004, C104, C204, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C003, C304, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C102, C104, C202, C203, C305, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C101, C102, C104, C203, C204, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C001, C004, C101, C205, C305</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [C203]</t>
+          <t>CS262 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [C202]</t>
+          <t>CS263 (Lab) [C104]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5381,7 +5381,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -5440,7 +5440,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -5716,12 +5716,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -5735,7 +5735,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -5996,27 +5996,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -6030,12 +6030,12 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -6055,12 +6055,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -6070,14 +6070,10 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="b">
         <v>0</v>
       </c>
@@ -6089,7 +6085,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -6114,27 +6110,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -6145,15 +6141,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -6173,27 +6173,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -6204,15 +6204,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -6232,27 +6236,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -6263,15 +6267,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -6291,27 +6299,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -6322,15 +6330,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -6350,27 +6362,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -6388,12 +6400,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -6413,27 +6425,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -6451,12 +6463,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6476,27 +6488,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -6514,12 +6526,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -6539,12 +6551,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6570,19 +6582,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -6602,25 +6610,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -6629,19 +6641,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -6661,22 +6669,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6692,19 +6700,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -6724,12 +6728,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -6744,7 +6748,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -6755,19 +6759,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -6821,12 +6821,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6880,12 +6880,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -6905,22 +6905,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6939,7 +6939,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6964,27 +6964,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6995,15 +6995,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -7023,27 +7027,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -7054,15 +7058,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -7082,27 +7090,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -7113,15 +7121,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -7141,27 +7153,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -7172,15 +7184,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -7200,7 +7216,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7210,17 +7226,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -7238,12 +7254,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7279,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7273,17 +7289,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -7301,12 +7317,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7342,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7336,17 +7352,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -7364,12 +7380,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -7389,12 +7405,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7404,7 +7420,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -7420,19 +7436,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7452,12 +7464,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7467,12 +7479,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -7483,19 +7495,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7515,12 +7523,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7535,7 +7543,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -7546,19 +7554,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -7578,12 +7582,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7598,7 +7602,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -7609,19 +7613,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7672,19 +7672,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7704,12 +7700,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -7735,11 +7731,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>C202</t>
@@ -7747,7 +7739,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -7767,12 +7759,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -7787,7 +7779,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -7798,19 +7790,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -7830,12 +7818,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7850,7 +7838,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -7861,19 +7849,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -7903,17 +7887,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7931,12 +7915,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -7966,17 +7950,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7994,12 +7978,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -8029,17 +8013,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -8057,12 +8041,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -8082,27 +8066,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -8120,12 +8104,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -8145,27 +8129,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -8183,12 +8167,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -8208,27 +8192,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -8246,12 +8230,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -8271,27 +8255,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -8309,12 +8293,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -8329,32 +8313,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -8362,22 +8346,18 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -8392,32 +8372,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -8425,22 +8405,18 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -8455,17 +8431,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -8475,7 +8451,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8488,22 +8464,18 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -8523,7 +8495,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -8582,12 +8554,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -8621,7 +8593,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -8641,27 +8613,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -8675,12 +8647,12 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8677,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -8724,7 +8696,7 @@
         </is>
       </c>
       <c r="I63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -8739,7 +8711,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -8764,22 +8736,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -8793,12 +8765,12 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -8818,12 +8790,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -8857,7 +8829,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -8877,27 +8849,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -8911,12 +8883,12 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -8936,22 +8908,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8970,12 +8942,12 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -8995,12 +8967,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -9034,7 +9006,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -9059,22 +9031,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -9088,12 +9060,12 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9118,17 +9090,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -9147,12 +9119,12 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9172,27 +9144,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -9206,12 +9178,12 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -9231,22 +9203,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -9265,12 +9237,12 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -9290,12 +9262,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -9329,7 +9301,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -9349,12 +9321,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -9369,7 +9341,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -9377,18 +9349,18 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9380,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -9423,31 +9395,27 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="b">
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -9467,7 +9435,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -9477,17 +9445,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -9495,18 +9463,22 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -9526,25 +9498,29 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I77" t="b">
         <v>0</v>
       </c>
@@ -9553,15 +9529,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -9581,25 +9561,29 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I78" t="b">
         <v>0</v>
       </c>
@@ -9608,15 +9592,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -9636,27 +9624,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -9667,15 +9655,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -9695,27 +9687,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -9726,15 +9718,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -9754,27 +9750,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -9785,15 +9781,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -9813,27 +9813,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -9844,15 +9844,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -9872,12 +9876,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9887,7 +9891,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -9903,19 +9907,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -9935,12 +9935,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -9966,19 +9966,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -9998,27 +9994,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -10029,19 +10025,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -10061,27 +10053,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -10092,19 +10084,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -10129,22 +10117,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -10155,19 +10143,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -10192,22 +10176,22 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -10218,19 +10202,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -10255,22 +10235,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -10288,12 +10268,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -10318,22 +10298,22 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -10344,15 +10324,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -10377,22 +10361,22 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -10403,15 +10387,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -10431,27 +10419,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -10462,15 +10450,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -10490,27 +10482,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -10521,15 +10513,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -10549,27 +10545,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -10580,15 +10576,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -10608,27 +10608,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -10639,15 +10639,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -10667,12 +10671,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10682,7 +10686,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -10701,12 +10705,12 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10726,12 +10730,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10741,12 +10745,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -10757,19 +10761,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10789,12 +10789,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10809,7 +10809,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -10820,19 +10820,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -10852,12 +10848,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10872,7 +10868,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -10883,19 +10879,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -10915,25 +10907,29 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I100" t="b">
         <v>0</v>
       </c>
@@ -10942,19 +10938,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10974,27 +10966,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -11005,19 +10997,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -11037,27 +11025,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -11068,19 +11056,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -11100,27 +11084,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -11131,19 +11115,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -11173,17 +11153,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -11201,7 +11181,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -11236,17 +11216,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -11264,7 +11244,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -11299,17 +11279,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I106" t="b">
@@ -11327,7 +11307,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -11362,17 +11342,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I107" t="b">
@@ -11390,7 +11370,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -11425,15 +11405,19 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I108" t="b">
         <v>0</v>
       </c>
@@ -11449,7 +11433,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -11484,17 +11468,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I109" t="b">
@@ -11512,7 +11496,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -11547,17 +11531,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I110" t="b">
@@ -11575,447 +11559,10 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>3</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>3</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>3</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>3</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>3</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>3</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>3</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>

--- a/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,224 +480,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS264 [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>CS262 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS262 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>CS263 [C104]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>CS264 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS263 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS264 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261 [C102]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>CS264 [C104]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Lab) [L403]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HSS_B3 (Tutorial)</t>
+          <t>CS261 [C101]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial) [C104]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L403]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [C102]</t>
+          <t>CS263 (Lab) [L403]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L403]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS261 [L402]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS261 [C101]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>CS262 (Lab) [L403]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [C102]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C104]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C104]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C104]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C104]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -712,7 +776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,11 +854,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASD352, EC251, EC252, EC254, CS152, CS251, CS253</t>
+          <t>ASD352, EC251, EC252, EC254, CS152, CS251</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -815,7 +879,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -825,21 +889,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DE352, CS162</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -860,7 +924,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -870,7 +934,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -880,11 +944,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -897,51 +961,6 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>Semester 3</t>
         </is>
@@ -958,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,7 +1044,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1060,7 +1079,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1095,7 +1114,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1130,7 +1149,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1165,7 +1184,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1200,7 +1219,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1216,26 +1235,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1251,12 +1270,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1266,11 +1285,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1278,286 +1297,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1641,16 +1380,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1671,16 +1410,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1705,16 +1444,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1739,16 +1478,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24.5</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>4.9</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>61.25000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1773,16 +1512,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1807,16 +1546,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1875,16 +1614,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>20.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>51.24999999999999</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2045,16 +1784,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>51.24999999999999</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2603,16 +2342,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2637,16 +2376,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>8.75</v>
+        <v>12.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2671,16 +2410,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2873,7 +2612,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2629,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C104</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2646,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2663,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003, C004</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2680,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C004, C101, C102</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2697,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -2975,19 +2714,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C104, C202</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -2995,12 +2734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -3008,19 +2747,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3030,7 +2765,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -3043,7 +2778,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -3056,7 +2791,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -3064,12 +2799,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -3077,38 +2812,46 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C001, C003, C104</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C003, C004</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -3121,41 +2864,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003, C004</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3163,17 +2902,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -3188,7 +2927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3231,224 +2970,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS264 [C004]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>CS262 [C102]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS262 [C102]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>CS264 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS263 [C102]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS264 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261 [C104]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>CS264 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Lab) [C004]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HSS_B3 (Tutorial)</t>
+          <t>CS261 [C102]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [C104]</t>
+          <t>CS263 (Lab) [C101]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MA261 [C002]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS261 [L403]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [C101]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS261 [C102]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [C104]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3364,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>L402, C004</t>
+          <t>L404, C101</t>
         </is>
       </c>
     </row>
@@ -3702,14 +3505,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**HSS_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3796,7 +3599,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C102, L402</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3646,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C102, C004</t>
+          <t>C104, L404, C101</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3693,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3740,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -4097,7 +3900,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101, C004</t>
+          <t>C102, L402</t>
         </is>
       </c>
     </row>
@@ -4238,14 +4041,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**HSS_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4332,7 +4135,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C104, L403</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4182,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C104, C004</t>
+          <t>C102, C101, C202</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4229,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4276,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4593,7 +4396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4603,12 +4406,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Projector</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -4616,7 +4414,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -4636,43 +4434,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA261, CS263, CS264 (Tutorial)...</t>
+          <t>MA262, MA261</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4496,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4706,16 +4504,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA262, CS262 (Lab)</t>
+          <t>CS262, CS263, CS263 (Lab)...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -4741,24 +4539,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS263 (Lab), CS261</t>
+          <t>CS262, CS263, CS261</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -4784,31 +4582,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS263 (Lab), CS261</t>
+          <t>MINOR: Design, MINOR: DSAI, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4818,40 +4616,40 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS261, CS262 (Lab)</t>
+          <t>MINOR: Design, MINOR: DSAI, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4870,7 +4668,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4882,12 +4680,55 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CS262 (Lab), CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4976,6 +4817,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4998,22 +4844,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -5027,12 +4873,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5057,22 +4908,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -5086,12 +4937,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5116,7 +4972,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5126,12 +4982,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -5145,12 +5001,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5170,27 +5031,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -5204,12 +5065,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5229,27 +5095,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -5263,12 +5129,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5293,22 +5164,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -5322,12 +5193,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5228,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5362,12 +5238,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -5381,12 +5257,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5292,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -5421,12 +5302,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -5440,12 +5321,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5465,27 +5351,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -5499,12 +5385,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5524,27 +5415,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -5558,12 +5449,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5583,27 +5479,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -5617,12 +5513,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5642,27 +5543,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -5676,12 +5577,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5607,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5735,12 +5641,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5760,12 +5671,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5794,12 +5705,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5819,12 +5735,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5853,12 +5769,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5878,22 +5799,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5912,12 +5833,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5937,12 +5863,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5971,12 +5897,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5996,46 +5927,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6055,42 +5987,51 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -6110,27 +6051,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -6138,22 +6079,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -6173,50 +6115,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6236,27 +6175,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -6264,22 +6203,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6299,27 +6239,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -6327,22 +6267,23 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6362,50 +6303,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6425,50 +6363,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6423,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6498,17 +6433,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -6516,22 +6451,23 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6551,12 +6487,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6579,18 +6515,23 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6615,7 +6556,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6641,15 +6582,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6669,12 +6619,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6700,7 +6650,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>C202</t>
@@ -6708,7 +6662,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6728,22 +6687,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6759,15 +6718,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6787,27 +6755,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -6818,15 +6786,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6846,22 +6823,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6877,15 +6854,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6905,12 +6891,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6936,15 +6922,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6959,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -6974,17 +6969,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -7002,12 +6997,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7027,27 +7027,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -7065,12 +7065,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7090,27 +7095,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -7128,12 +7133,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>CS253</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7153,29 +7163,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="b">
         <v>0</v>
       </c>
@@ -7191,12 +7197,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7227,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -7259,7 +7270,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7279,27 +7295,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -7317,12 +7333,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7342,27 +7363,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -7380,12 +7401,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7405,12 +7431,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7420,12 +7446,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -7436,15 +7462,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7464,12 +7499,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7479,12 +7514,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -7498,14 +7533,15 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -7528,7 +7564,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7554,15 +7590,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7582,12 +7627,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7613,7 +7658,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>C202</t>
@@ -7621,7 +7670,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7641,27 +7695,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -7672,15 +7726,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7700,27 +7763,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7731,15 +7794,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7759,22 +7831,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -7790,15 +7862,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7818,12 +7899,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7849,15 +7930,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7877,27 +7967,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7915,12 +8005,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7940,27 +8035,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7971,21 +8066,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8003,27 +8095,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -8034,21 +8126,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8066,27 +8155,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -8097,21 +8186,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8129,27 +8215,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -8160,21 +8246,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8192,27 +8275,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -8223,21 +8306,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8250,32 +8330,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -8283,22 +8363,23 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8328,17 +8409,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -8352,12 +8433,17 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
           <t>CS262</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8387,17 +8473,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -8411,12 +8497,17 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8451,12 +8542,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -8470,12 +8561,17 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
           <t>CS261</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8495,27 +8591,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -8529,12 +8625,17 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8559,22 +8660,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -8588,12 +8689,17 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8618,22 +8724,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -8647,12 +8753,17 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8677,26 +8788,26 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -8706,12 +8817,17 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8852,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -8765,12 +8881,17 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8790,27 +8911,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -8824,12 +8945,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -8849,27 +8975,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -8883,12 +9009,17 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -8908,22 +9039,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8942,12 +9073,17 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8967,27 +9103,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -9001,12 +9137,17 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9026,12 +9167,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -9060,12 +9201,17 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9231,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -9119,12 +9265,17 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9144,12 +9295,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -9178,12 +9329,17 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9203,22 +9359,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -9237,12 +9393,17 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9262,22 +9423,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -9296,12 +9457,17 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9321,46 +9487,51 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -9380,42 +9551,51 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I75" t="b">
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -9435,27 +9615,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -9463,22 +9643,23 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9498,27 +9679,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -9526,22 +9707,23 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9561,27 +9743,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -9589,22 +9771,23 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9624,27 +9807,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -9652,22 +9835,23 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9687,27 +9871,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -9715,22 +9899,23 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9750,7 +9935,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -9760,17 +9945,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -9778,22 +9963,23 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9813,27 +9999,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -9841,22 +10027,23 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9881,7 +10068,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9896,7 +10083,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -9907,15 +10094,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9940,24 +10136,20 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="b">
         <v>0</v>
       </c>
@@ -9966,15 +10158,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9994,12 +10195,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -10014,7 +10215,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -10025,15 +10226,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10053,27 +10263,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -10084,15 +10294,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10112,27 +10331,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -10143,15 +10362,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10171,27 +10399,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -10202,15 +10430,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10230,7 +10467,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10240,17 +10477,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -10268,12 +10505,17 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10293,27 +10535,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -10331,12 +10573,17 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10356,27 +10603,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -10394,12 +10641,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
           <t>CS253</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10419,27 +10671,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -10457,12 +10709,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10482,27 +10739,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -10520,12 +10777,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10545,29 +10807,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="b">
         <v>0</v>
       </c>
@@ -10583,12 +10841,17 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10608,12 +10871,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10651,7 +10914,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10671,12 +10939,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10686,12 +10954,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -10702,15 +10970,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10730,12 +11007,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10745,7 +11022,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -10764,14 +11041,15 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -10794,7 +11072,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10809,7 +11087,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -10820,15 +11098,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10848,29 +11135,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="b">
         <v>0</v>
       </c>
@@ -10879,15 +11162,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10907,12 +11199,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10922,12 +11214,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -10938,15 +11230,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10966,27 +11267,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -10997,15 +11298,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11025,27 +11335,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -11056,15 +11366,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11084,27 +11403,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -11115,15 +11434,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11143,27 +11471,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -11181,12 +11509,17 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11206,27 +11539,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -11237,21 +11570,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -11269,27 +11599,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I106" t="b">
@@ -11300,21 +11630,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -11332,27 +11659,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I107" t="b">
@@ -11363,21 +11690,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -11395,27 +11719,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I108" t="b">
@@ -11426,147 +11750,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>3</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>3</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11932,7 +12127,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -11989,7 +12184,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -12009,12 +12204,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -12231,7 +12426,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -12295,12 +12490,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -12317,12 +12512,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>74.3%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 74.3%, B: 74.3%</t>
+          <t>A: 77.8%, B: 77.8%</t>
         </is>
       </c>
     </row>
@@ -12344,7 +12539,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 50.7/100</t>
+          <t>Score: 51.8/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L403]</t>
+          <t>CS263 (Lab) [L402]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L403]</t>
+          <t>CS263 (Lab) [L402]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L403]</t>
+          <t>CS262 (Lab) [L402]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L403]</t>
+          <t>CS262 (Lab) [L402]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2342,16 +2342,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2410,16 +2410,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, C202</t>
+          <t>C001, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C003, C104</t>
+          <t>C003, C102, C202</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C102</t>
+          <t>C101, C102, C104</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C003, C102, C104</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C001, C002, C104, C202</t>
+          <t>C003, C104, C202</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C003, C104</t>
+          <t>C003, C102, C202</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C003, C102, C104</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L404]</t>
+          <t>CS262 (Lab) [L403]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L404]</t>
+          <t>CS262 (Lab) [L403]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4743,7 +4743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5449,7 +5449,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -5513,7 +5513,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -6021,7 +6021,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -6085,7 +6085,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -6556,24 +6556,20 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -6582,26 +6578,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6629,12 +6617,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6657,12 +6645,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6702,7 +6690,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6725,12 +6713,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6765,17 +6753,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -6793,12 +6781,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6841,11 +6829,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -6861,7 +6845,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6929,7 +6913,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6969,17 +6953,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6997,12 +6981,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -7027,12 +7011,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -7065,17 +7049,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7095,12 +7079,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -7126,26 +7110,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -7178,10 +7154,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I38" t="b">
         <v>0</v>
       </c>
@@ -7197,7 +7177,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -7237,17 +7217,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -7265,7 +7245,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -7305,12 +7285,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7333,12 +7313,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7373,19 +7353,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -7401,12 +7377,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7469,12 +7445,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7504,22 +7480,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -7530,18 +7506,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS262</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -7559,12 +7543,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7597,17 +7581,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7611,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7658,11 +7642,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>C202</t>
@@ -7670,14 +7650,10 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7700,17 +7676,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7726,26 +7702,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7773,17 +7741,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7801,12 +7769,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7874,7 +7842,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7937,12 +7905,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7977,19 +7945,15 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -8005,12 +7969,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8035,22 +7999,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8066,18 +8030,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8095,27 +8067,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -8126,18 +8098,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8160,7 +8140,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -8175,7 +8155,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -8186,18 +8166,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8945,7 +8933,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -9009,7 +8997,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -10068,24 +10056,20 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="b">
         <v>0</v>
       </c>
@@ -10094,26 +10078,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -10141,15 +10117,19 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
@@ -10165,12 +10145,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10205,12 +10185,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -10233,12 +10213,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10306,7 +10286,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10409,12 +10389,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -10437,7 +10417,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -10477,19 +10457,15 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="b">
         <v>0</v>
       </c>
@@ -10505,12 +10481,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10535,12 +10511,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -10573,17 +10549,17 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10603,27 +10579,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -10634,26 +10610,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -10709,7 +10677,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -10754,14 +10722,10 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="b">
         <v>0</v>
       </c>
@@ -10777,7 +10741,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -10817,15 +10781,19 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I94" t="b">
         <v>0</v>
       </c>
@@ -10841,12 +10809,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -10881,17 +10849,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -10909,12 +10877,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -10977,12 +10945,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -11012,7 +10980,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -11027,7 +10995,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -11038,18 +11006,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>CS262</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -11067,22 +11043,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -11105,17 +11081,17 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11135,25 +11111,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I99" t="b">
         <v>0</v>
       </c>
@@ -11162,26 +11142,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -11204,7 +11176,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -11219,7 +11191,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -11230,26 +11202,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -11277,12 +11241,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -11305,12 +11269,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -11345,17 +11309,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -11373,12 +11337,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -11413,12 +11377,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -11441,12 +11405,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -11481,17 +11445,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -11509,12 +11473,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -11539,22 +11503,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -11570,18 +11534,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -11599,12 +11571,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11630,18 +11602,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -11664,22 +11644,22 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I107" t="b">
@@ -11690,18 +11670,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -11724,7 +11712,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11762,6 +11750,66 @@
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C102]</t>
+          <t>CS262 [C204]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
     </row>
@@ -564,12 +564,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>CS261 [C202]</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>CS261 [C202]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS261 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS261 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>37.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1735,16 +1735,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1803,16 +1803,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37.5</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.75</v>
+        <v>52.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.25</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1939,16 +1939,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2109,16 +2109,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2211,16 +2211,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, C202, C203</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C004, C204</t>
+          <t>C004, C203</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C002, C205</t>
+          <t>C001, C204</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C102, C302</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C104, C303</t>
+          <t>C102, C302</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C203, C304</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C104, C305</t>
+          <t>C002, C305</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C203, C304</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C004, C204</t>
+          <t>C004, C203</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C001, C002, C205</t>
+          <t>C001, C204</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C101, C102, C302</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -3300,27 +3300,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C104]</t>
+          <t>CS262 [C205]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS264 [C101]</t>
+          <t>CS264 [C203]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
     </row>
@@ -3379,12 +3379,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>CS261 [C203]</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS264 [C104]</t>
+          <t>CS264 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>CS261 [C102]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS261 [C203]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L107]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3524,12 +3524,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS261 [C203]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L107]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3556,27 +3556,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C102, L207</t>
+          <t>C004, L207, C204</t>
         </is>
       </c>
     </row>
@@ -3884,22 +3884,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3924,29 +3924,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004, C302, L107</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3966,34 +3966,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C302, L106</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS261**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4018,99 +4018,52 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C101, C002</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Total Courses: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>Rate: 25.0%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>C004, C002</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 11.1%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 8 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -4127,7 +4080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4225,7 +4178,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C104, L207</t>
+          <t>C004, C205, L106</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4319,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C104, C101, C203</t>
+          <t>C203, C101</t>
         </is>
       </c>
     </row>
@@ -4420,22 +4373,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4445,7 +4398,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4460,29 +4413,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004, L207, C303</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -4492,7 +4445,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4502,34 +4455,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C303, C004, L106</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS261**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4554,99 +4507,52 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C101, C002</t>
+          <t>C203, C102</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Total Courses: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>Rate: 25.0%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>C004, C002</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 11.1%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 8 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -4663,7 +4569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4721,7 +4627,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4731,7 +4637,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4740,24 +4646,24 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA261, MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4701,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MINOR: VLSI, CS262, MINOR: Design...</t>
+          <t>MINOR: Cybersecurity, MA261, CS263...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4826,24 +4732,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS264, MA262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4779,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -4881,7 +4787,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS262, CS264</t>
+          <t>CS264, CS261</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4893,7 +4799,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4912,11 +4818,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -4924,19 +4830,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS262, CS264</t>
+          <t>CS261, CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4951,7 +4857,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4959,15 +4865,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS261, CS264 (Tutorial)</t>
+          <t>CS264, CS261, CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -4979,7 +4885,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4998,31 +4904,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS261, CS264 (Tutorial)</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5037,7 +4943,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5045,7 +4951,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -5053,7 +4959,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5065,7 +4971,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5080,7 +4986,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5088,7 +4994,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -5108,30 +5014,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -5139,19 +5045,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5170,11 +5076,11 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -5186,6 +5092,92 @@
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CS262 (Lab), CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>0.8</t>
         </is>
@@ -5202,7 +5194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5529,27 +5521,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -5563,12 +5555,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -5596,17 +5588,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -5640,7 +5632,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -5673,27 +5665,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -5707,12 +5699,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -5745,12 +5737,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -5779,12 +5771,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -5817,12 +5809,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5851,12 +5843,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -5889,27 +5881,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -5923,17 +5915,17 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P10" t="b">
@@ -5961,7 +5953,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -6033,27 +6025,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -6067,17 +6059,17 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P12" t="b">
@@ -6100,17 +6092,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -6144,7 +6136,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -6177,12 +6169,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -6216,7 +6208,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -6249,12 +6241,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -6288,7 +6280,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -6316,17 +6308,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -6360,7 +6352,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -6393,27 +6385,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -6427,12 +6419,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -6465,27 +6457,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -6499,12 +6491,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -6537,22 +6529,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6571,12 +6563,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -6609,27 +6601,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -6643,17 +6635,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -6681,7 +6673,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -6715,7 +6707,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6753,27 +6745,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -6787,17 +6779,17 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P22" t="b">
@@ -6820,17 +6812,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -6864,7 +6856,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -6897,12 +6889,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6936,7 +6928,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6969,12 +6961,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -7003,12 +6995,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -7041,27 +7033,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -7075,12 +7067,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -7108,7 +7100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7118,7 +7110,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -7141,18 +7133,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -7180,17 +7176,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -7213,10 +7209,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>C004</t>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -7262,24 +7262,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="b">
         <v>0</v>
       </c>
@@ -7295,12 +7291,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -7338,20 +7334,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -7367,12 +7367,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7410,17 +7410,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7443,12 +7443,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -7562,17 +7562,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7595,12 +7595,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -7628,17 +7628,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -7671,17 +7671,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -7704,17 +7704,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -7752,12 +7752,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -7790,24 +7790,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -7823,12 +7819,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7866,22 +7862,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -7899,12 +7895,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -7942,20 +7938,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
@@ -7971,12 +7971,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -8047,12 +8047,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -8090,17 +8090,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -8156,27 +8156,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -8199,17 +8199,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P41" t="b">
@@ -8232,32 +8232,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -8275,17 +8275,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P42" t="b">
@@ -8318,24 +8318,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -8351,12 +8347,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -8394,20 +8390,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -8423,12 +8423,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -8466,17 +8466,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -8575,12 +8575,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8651,12 +8651,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -8679,60 +8679,52 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -8755,37 +8747,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -8793,22 +8785,18 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -8841,27 +8829,27 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -8875,17 +8863,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P50" t="b">
@@ -8913,29 +8901,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -8947,12 +8931,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -8980,34 +8964,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -9019,17 +8999,17 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P52" t="b">
@@ -9052,17 +9032,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -9091,12 +9071,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -9124,32 +9104,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -9163,12 +9143,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -9201,27 +9181,27 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -9235,12 +9215,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -9273,27 +9253,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -9307,17 +9287,17 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P56" t="b">
@@ -9345,27 +9325,27 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -9379,17 +9359,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P57" t="b">
@@ -9417,29 +9397,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -9451,12 +9427,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -9484,34 +9460,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -9523,17 +9495,17 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P59" t="b">
@@ -9556,32 +9528,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -9595,17 +9567,17 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -9628,7 +9600,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -9638,24 +9610,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -9667,12 +9635,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -9700,7 +9668,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -9710,24 +9678,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="b">
         <v>0</v>
       </c>
@@ -9739,12 +9703,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -9772,7 +9736,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -9782,7 +9746,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -9797,7 +9761,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -9811,12 +9775,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -9844,32 +9808,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -9883,12 +9847,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -9921,27 +9885,27 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -9955,12 +9919,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -9993,27 +9957,27 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -10027,17 +9991,17 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -10065,27 +10029,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -10099,17 +10063,17 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -10137,12 +10101,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -10172,7 +10136,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -10200,34 +10164,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -10239,17 +10199,17 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P69" t="b">
@@ -10272,32 +10232,32 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -10311,17 +10271,17 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -10344,32 +10304,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -10383,12 +10343,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -10421,29 +10381,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="b">
         <v>0</v>
       </c>
@@ -10455,12 +10411,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -10488,27 +10444,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -10521,18 +10477,22 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -10560,32 +10520,32 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -10593,18 +10553,22 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -10632,7 +10596,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10642,7 +10606,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -10665,18 +10629,22 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -10704,32 +10672,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -10737,18 +10705,22 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -10786,7 +10758,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -10819,12 +10791,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -10862,7 +10834,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -10895,12 +10867,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10938,7 +10910,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -10971,12 +10943,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -11004,17 +10976,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -11047,17 +11019,17 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P80" t="b">
@@ -11080,17 +11052,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -11123,17 +11095,17 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P81" t="b">
@@ -11156,17 +11128,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -11199,17 +11171,17 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P82" t="b">
@@ -11232,17 +11204,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -11275,17 +11247,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -11318,7 +11290,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -11333,7 +11305,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -11351,12 +11323,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -11394,7 +11366,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -11427,12 +11399,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -11470,7 +11442,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -11503,12 +11475,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11536,17 +11508,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -11579,17 +11551,17 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P87" t="b">
@@ -11612,17 +11584,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -11655,17 +11627,17 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P88" t="b">
@@ -11688,17 +11660,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -11731,17 +11703,17 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P89" t="b">
@@ -11764,17 +11736,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -11807,17 +11779,17 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P90" t="b">
@@ -11850,7 +11822,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -11883,12 +11855,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11926,7 +11898,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -11959,12 +11931,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -12002,7 +11974,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -12035,12 +12007,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -12049,310 +12021,6 @@
         </is>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>3</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J96" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>3</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12367,7 +12035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12839,17 +12507,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -12864,12 +12532,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -12879,69 +12547,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[WARN] PARTIAL</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3/1/0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
+          <t>Meets requirements</t>
         </is>
       </c>
     </row>
@@ -13019,7 +12630,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13040,11 +12651,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 6, Elective: 3</t>
+          <t>Core: 5, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -13061,12 +12672,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1/9 courses fully compliant</t>
+          <t>2/8 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -13083,12 +12694,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/36</t>
+          <t>13/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 30.6%</t>
+          <t>Utilization: 36.1%</t>
         </is>
       </c>
     </row>
@@ -13105,12 +12716,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>75.6%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 80.0%, B: 80.0%</t>
+          <t>A: 75.6%, B: 75.6%</t>
         </is>
       </c>
     </row>
@@ -13132,7 +12743,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 52.4/100</t>
+          <t>Score: 56.7/100</t>
         </is>
       </c>
     </row>
@@ -13147,7 +12758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13613,12 +13224,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13640,24 +13251,24 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>No</t>
@@ -13665,7 +13276,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -13685,12 +13296,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -13698,11 +13309,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -13712,24 +13323,24 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>No</t>
@@ -13737,7 +13348,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -13757,24 +13368,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -13784,24 +13395,24 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Pankaj</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -13809,7 +13420,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -13829,12 +13440,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Introduction of RFIC design</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13842,11 +13453,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -13856,7 +13467,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -13876,7 +13487,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -13901,12 +13512,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronic Systems engineering</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13928,7 +13539,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Mallikarjun Kande</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -13973,12 +13584,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Introduction of RFIC design</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -14000,7 +13611,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -14045,12 +13656,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Electronic Systems engineering</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14072,7 +13683,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Vivekraj V K</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -14096,150 +13707,6 @@
         </is>
       </c>
       <c r="P13" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Data Science with Python</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2D Computer Graphics</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Vivekraj V K</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>

--- a/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_pre_mid_timetable.xlsx
@@ -485,27 +485,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -517,22 +517,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C204]</t>
+          <t>CS262 [C302]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS264 [C102]</t>
+          <t>CS264 [C101]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS264 [C102]</t>
+          <t>CS264 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C202]</t>
+          <t>CS264 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1803,16 +1803,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>52.5</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.25</v>
+        <v>41.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1939,16 +1939,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2007,16 +2007,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2109,16 +2109,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>21.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2211,16 +2211,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>21.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2449,16 +2449,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C303, C304</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C305</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C303, C304</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004, C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C001, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C101, C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3300,27 +3300,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -3332,17 +3332,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS262 [C101]</t>
+          <t>CS262 [C203]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C205]</t>
+          <t>CS262 [C303]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>CS263 [C203]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS264 [C101]</t>
+          <t>CS264 [C102]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS261 [C102]</t>
+          <t>CS261 [C203]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C203]</t>
+          <t>CS264 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3556,27 +3556,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L207, C204</t>
+          <t>L207, C302, C202</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C102, C202</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C302, L107</t>
+          <t>L207, C302, C202</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C205, L106</t>
+          <t>C203, L207, C303</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C203, C101</t>
+          <t>C203, C102, C202</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, L207, C303</t>
+          <t>C203, L207, C303</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C203, C102</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4689,24 +4689,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MA261, CS263...</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4732,11 +4732,11 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4783,23 +4783,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS264, CS261</t>
+          <t>CS264, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4818,31 +4818,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS261, CS264 (Tutorial)</t>
+          <t>MINOR: Generative Ai, MINOR: Design, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4857,35 +4857,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS264, CS261, CS264 (Tutorial)</t>
+          <t>CS264 (Tutorial), CS263, CS261...</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4904,31 +4904,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS264, CS262, CS264 (Tutorial)...</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4943,35 +4943,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263, CS262</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4986,200 +4986,71 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS263, CS262</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS263 (Lab), CS262 (Lab)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CS262 (Lab), CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.8</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -5315,17 +5186,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -5339,7 +5210,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -5387,17 +5258,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -5411,7 +5282,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -5469,7 +5340,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -5483,7 +5354,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -5531,17 +5402,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -5555,7 +5426,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -5603,17 +5474,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -5627,7 +5498,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -5685,7 +5556,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -5699,7 +5570,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -5843,7 +5714,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -6035,17 +5906,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -6059,7 +5930,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -6107,17 +5978,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -6131,7 +6002,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -6179,17 +6050,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -6203,7 +6074,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -6251,17 +6122,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -6275,7 +6146,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -6323,17 +6194,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -6347,7 +6218,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -6419,7 +6290,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -6635,7 +6506,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -6707,7 +6578,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6755,17 +6626,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -6779,7 +6650,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6827,17 +6698,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -6851,7 +6722,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -7043,17 +6914,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -7067,7 +6938,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -7125,7 +6996,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -7143,7 +7014,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -7191,17 +7062,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -7219,7 +7090,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -7267,15 +7138,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
@@ -7291,7 +7166,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -7367,7 +7242,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -7425,7 +7300,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -7443,7 +7318,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -7519,7 +7394,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -7567,12 +7442,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7595,7 +7470,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -7653,7 +7528,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -7671,7 +7546,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -7719,17 +7594,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -7747,7 +7622,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -7795,15 +7670,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -7819,7 +7698,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -7895,7 +7774,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7953,7 +7832,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -7971,7 +7850,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -8047,7 +7926,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -8095,12 +7974,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -8123,7 +8002,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -8181,7 +8060,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -8199,7 +8078,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -8247,17 +8126,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -8275,7 +8154,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -8323,15 +8202,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -8347,7 +8230,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -8423,7 +8306,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -8481,7 +8364,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -8499,7 +8382,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8575,7 +8458,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -8623,12 +8506,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8651,7 +8534,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -8699,15 +8582,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -8719,7 +8606,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8777,7 +8664,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -8791,7 +8678,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -8849,7 +8736,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -8863,7 +8750,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8911,15 +8798,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -8931,7 +8822,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -8979,15 +8870,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -8999,7 +8894,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -9071,7 +8966,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -9215,7 +9110,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -9407,15 +9302,19 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -9427,7 +9326,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -9475,15 +9374,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -9495,7 +9398,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -9553,7 +9456,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -9567,7 +9470,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -9615,15 +9518,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -9635,7 +9542,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -9683,15 +9590,19 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
@@ -9703,7 +9614,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -9905,7 +9816,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -9919,7 +9830,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -9991,7 +9902,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -10063,7 +9974,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -10111,15 +10022,19 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -10131,7 +10046,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -10179,15 +10094,19 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -10199,7 +10118,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -10391,15 +10310,19 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
@@ -10411,7 +10334,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -10469,7 +10392,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -10487,7 +10410,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -10545,7 +10468,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -10563,7 +10486,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -10621,7 +10544,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -10639,7 +10562,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -10697,7 +10620,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -10715,7 +10638,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -10773,7 +10696,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -10791,7 +10714,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -10867,7 +10790,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -10925,7 +10848,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -10943,7 +10866,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -11001,7 +10924,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -11019,7 +10942,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -11077,7 +11000,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -11095,7 +11018,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -11153,7 +11076,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -11171,7 +11094,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -11229,7 +11152,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -11247,7 +11170,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -11305,7 +11228,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -11323,7 +11246,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -11399,7 +11322,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -11457,7 +11380,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -11475,7 +11398,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -11533,7 +11456,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -11551,7 +11474,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -11609,7 +11532,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -11627,7 +11550,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -11685,7 +11608,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -11703,7 +11626,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -11761,7 +11684,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -11779,7 +11702,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -11837,7 +11760,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -11855,7 +11778,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -11931,7 +11854,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -11989,7 +11912,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -12007,7 +11930,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -12630,7 +12553,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -12694,12 +12617,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13/36</t>
+          <t>10/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 36.1%</t>
+          <t>Utilization: 27.8%</t>
         </is>
       </c>
     </row>
